--- a/biology/Botanique/Grevilleoideae/Grevilleoideae.xlsx
+++ b/biology/Botanique/Grevilleoideae/Grevilleoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevilloideae
 Les Grevilleoideae sont une sous-famille de la famille de plantes à fleurs des Proteaceae. Principalement localisée dans l'hémisphère sud, elle comprend environ 44 genres et environ 950 espèces. Parmi ces genres, on peut citer Banksia, Grevillea et Macadamia.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grevilleoideae se présentent sous la forme d'arbres, d'arbustes ou d'arbrisseaux. Elles sont très variables, rendant impossible l'établissement d'une clé d'identification simple de la sous-famille. Un des caractères communs et assez spécifique est la disposition des fleurs par paires qui partagent une bractée commune. Cependant, quelques taxons des Grevilleoideae ne partagent pas cette propriété, ayant des fleurs solitaires ou des inflorescences de fleurs non appariées. Chez la plupart des taxons, les fleurs sont rassemblées en capitules ou épis très denses et le fruit est un follicule.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Grevilleoideae sont principalement originaires de l'hémisphère sud. Le principal centre de diversité est l'Australie, où l'on trouve 700 des 950 espèces. Il y a, de façon assez surprenante, peu de taxons de Grevilleoideae en Afrique du Sud ; la plupart des taxons de Proteaceae y appartiennent à la sous-famille des Proteoideae[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Grevilleoideae sont principalement originaires de l'hémisphère sud. Le principal centre de diversité est l'Australie, où l'on trouve 700 des 950 espèces. Il y a, de façon assez surprenante, peu de taxons de Grevilleoideae en Afrique du Sud ; la plupart des taxons de Proteaceae y appartiennent à la sous-famille des Proteoideae.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le cadre de la classification des Proteaceae fut établie en 1975 par L. A. S. Johnson et Barbara Briggs[2]. Cette classification a été quelque peu affinée au cours des trois décennies suivantes, conduisant à un arrangement assez stable et largement acceptée. Les Grevilleoideae sont l'une des sept sous-familles de Proteaceae, dont cinq sont très petites ; les Grevilleoideae et les Proteoideae rassemblent la majorité des espèces.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le cadre de la classification des Proteaceae fut établie en 1975 par L. A. S. Johnson et Barbara Briggs. Cette classification a été quelque peu affinée au cours des trois décennies suivantes, conduisant à un arrangement assez stable et largement acceptée. Les Grevilleoideae sont l'une des sept sous-familles de Proteaceae, dont cinq sont très petites ; les Grevilleoideae et les Proteoideae rassemblent la majorité des espèces.
 Les Grevilleoideae sont subdivisées en tribus, sous-tribus et genres de la manière suivante :
 Sous-famille Grevilleoideae
 Tribu des Oriteae
@@ -677,7 +695,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces de Grevilleoideae sont cultivées en pépinières, comme plantes de barrière et pour leurs fleurs et leur feuillage développés et caractéristiques. Certaines espèces sont importantes pour la fleur coupée, en particulier des espèces de Banksia et de Dryandra. Deux espèces du genre Macadamia font l'objet de cultures commerciales pour leurs noix comestibles.
 </t>
